--- a/DashBoard.xlsx
+++ b/DashBoard.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TestArgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA2D03-6992-4BCC-8ACA-9F217B3FFCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0738701C-C515-4101-AA40-5E45101A682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21060" yWindow="2715" windowWidth="19215" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -117,7 +128,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -126,7 +137,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -143,6 +154,124 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="G1"/>
+          <cell r="H1"/>
+        </row>
+        <row r="2">
+          <cell r="G2"/>
+          <cell r="H2"/>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Estado</v>
+          </cell>
+          <cell r="H3"/>
+        </row>
+        <row r="4">
+          <cell r="G4"/>
+          <cell r="H4"/>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>ABIERTO</v>
+          </cell>
+          <cell r="H5"/>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>ASIGNADO</v>
+          </cell>
+          <cell r="H6"/>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>SOLUCIONADO</v>
+          </cell>
+          <cell r="H7"/>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>ABIERTO</v>
+          </cell>
+          <cell r="H8"/>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>ABIERTO</v>
+          </cell>
+          <cell r="H9"/>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>ABIERTO</v>
+          </cell>
+          <cell r="H10"/>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>7</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>ABIERTO</v>
+          </cell>
+          <cell r="H11"/>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>8</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>APROBADO</v>
+          </cell>
+          <cell r="H12"/>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>9</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>APROBADO</v>
+          </cell>
+          <cell r="H13"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,16 +540,16 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H4" sqref="H4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
@@ -447,8 +576,8 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -467,246 +596,230 @@
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="D4" s="1">
+        <f>COUNT([1]Hoja1!$B:$B)</f>
+        <v>9</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <f>COUNTIF([1]Hoja1!$G:$H,"aproBado")+N4</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="e">
+        <f>COUNTIF([1]Hoja1!$G:$H,"reportado")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <f>COUNTIF([1]Hoja1!$G:$H,"abierto")</f>
+        <v>5</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <f>COUNTIF([1]Hoja1!$G:$H,"asignado")</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <f>COUNTIF([1]Hoja1!$G:$H,"solucionado")</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="N4:O5"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="H2:I3"/>
     <mergeCell ref="J2:K3"/>
-    <mergeCell ref="L2:M3"/>
     <mergeCell ref="D6:E7"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="H6:I7"/>
@@ -717,6 +830,40 @@
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B12:C13"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="L14:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DashBoard.xlsx
+++ b/DashBoard.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TestArgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0738701C-C515-4101-AA40-5E45101A682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671AC1E1-2EC7-4C10-B303-F908EDD0D77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21060" yWindow="2715" windowWidth="19215" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21015" yWindow="5550" windowWidth="19185" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Modulo</t>
   </si>
@@ -75,13 +76,19 @@
   </si>
   <si>
     <t>Solucionados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan de pruebas Argos </t>
+  </si>
+  <si>
+    <t>Resumen general de casos de prueba por modulo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +96,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -122,25 +150,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Énfasis5" xfId="1" builtinId="47"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -156,6 +201,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123681</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457361</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D462FFBF-844F-4A5E-97AE-4626E986EC30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733281" y="215900"/>
+          <a:ext cx="1552880" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -165,110 +259,108 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="G1"/>
-          <cell r="H1"/>
-        </row>
-        <row r="2">
-          <cell r="G2"/>
-          <cell r="H2"/>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
             <v>N°</v>
           </cell>
-          <cell r="G3" t="str">
+          <cell r="G10" t="str">
             <v>Estado</v>
           </cell>
-          <cell r="H3"/>
-        </row>
-        <row r="4">
-          <cell r="G4"/>
-          <cell r="H4"/>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>ABIERTO</v>
-          </cell>
-          <cell r="H5"/>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>ASIGNADO</v>
-          </cell>
-          <cell r="H6"/>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>SOLUCIONADO</v>
-          </cell>
-          <cell r="H7"/>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>ABIERTO</v>
-          </cell>
-          <cell r="H8"/>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>ABIERTO</v>
-          </cell>
-          <cell r="H9"/>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>ABIERTO</v>
-          </cell>
-          <cell r="H10"/>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>ABIERTO</v>
-          </cell>
-          <cell r="H11"/>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>8</v>
+            <v>1</v>
           </cell>
           <cell r="G12" t="str">
             <v>APROBADO</v>
           </cell>
-          <cell r="H12"/>
         </row>
         <row r="13">
-          <cell r="B13">
-            <v>9</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>APROBADO</v>
-          </cell>
-          <cell r="H13"/>
+          <cell r="B13" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>Estado</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>2</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>NO REVISADO</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>Estado</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>NO REVISADO</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>Estado</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>2</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>NO REVISADO</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -537,335 +629,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O15"/>
+  <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1">
+      <c r="C9" s="3"/>
+      <c r="D9" s="6">
+        <f>COUNT([2]Hoja1!$B:$B)</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <f>COUNTIF([2]Hoja1!$G:$H,"aproBado")+N9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <f>COUNTIF([2]Hoja1!$G:$H,"reportado")</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
+        <f>COUNTIF([2]Hoja1!$G:$H,"abierto")</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
+        <f>COUNTIF([2]Hoja1!$G:$H,"asignado")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
+        <f>COUNTIF([2]Hoja1!$G:$H,"solucionado")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6">
         <f>COUNT([1]Hoja1!$B:$B)</f>
-        <v>9</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <f>COUNTIF([1]Hoja1!$G:$H,"aproBado")+N4</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <f>COUNTIF([1]Hoja1!$G:$H,"aproBado")+N11</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <f>COUNTIF([1]Hoja1!$G:$H,"reportado")</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
+        <f>COUNTIF([1]Hoja1!$G:$H,"abierto")</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <f>COUNTIF([1]Hoja1!$G:$H,"asignado")</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
+        <f>COUNTIF([1]Hoja1!$G:$H,"solucionado")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="e">
-        <f>COUNTIF([1]Hoja1!$G:$H,"reportado")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <f>COUNTIF([1]Hoja1!$G:$H,"abierto")</f>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
-        <f>COUNTIF([1]Hoja1!$G:$H,"asignado")</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1">
-        <f>COUNTIF([1]Hoja1!$G:$H,"solucionado")</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="2" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="L14:M15"/>
+  <mergeCells count="52">
+    <mergeCell ref="B2:D5"/>
+    <mergeCell ref="E2:O3"/>
+    <mergeCell ref="E4:O5"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="J19:K20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="N9:O10"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DashBoard.xlsx
+++ b/DashBoard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TestArgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671AC1E1-2EC7-4C10-B303-F908EDD0D77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20893668-4753-465B-949A-44FEF1F1583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21015" yWindow="5550" windowWidth="19185" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +85,7 @@
     <t xml:space="preserve">Plan de pruebas Argos </t>
   </si>
   <si>
-    <t>Resumen general de casos de prueba por modulo</t>
+    <t>Resumen general casos de prueba por modulo</t>
   </si>
 </sst>
 </file>
@@ -163,24 +167,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -259,6 +263,122 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2"/>
+          <cell r="G2"/>
+          <cell r="H2"/>
+        </row>
+        <row r="3">
+          <cell r="B3"/>
+          <cell r="G3"/>
+          <cell r="H3"/>
+        </row>
+        <row r="4">
+          <cell r="B4"/>
+          <cell r="G4"/>
+          <cell r="H4"/>
+        </row>
+        <row r="5">
+          <cell r="B5"/>
+          <cell r="G5"/>
+          <cell r="H5"/>
+        </row>
+        <row r="6">
+          <cell r="B6"/>
+          <cell r="G6"/>
+          <cell r="H6"/>
+        </row>
+        <row r="7">
+          <cell r="B7"/>
+          <cell r="G7"/>
+          <cell r="H7"/>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+          <cell r="G8"/>
+          <cell r="H8"/>
+        </row>
+        <row r="9">
+          <cell r="B9"/>
+          <cell r="G9"/>
+          <cell r="H9"/>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>Estado</v>
+          </cell>
+          <cell r="H10"/>
+        </row>
+        <row r="11">
+          <cell r="B11"/>
+          <cell r="G11"/>
+          <cell r="H11"/>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>NO REVISADO</v>
+          </cell>
+          <cell r="H12"/>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+          <cell r="G13"/>
+          <cell r="H13"/>
+        </row>
+        <row r="14">
+          <cell r="B14"/>
+          <cell r="G14"/>
+          <cell r="H14"/>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>Estado</v>
+          </cell>
+          <cell r="H15"/>
+        </row>
+        <row r="16">
+          <cell r="B16"/>
+          <cell r="G16"/>
+          <cell r="H16"/>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>2</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>NO REVISADO</v>
+          </cell>
+          <cell r="H17"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
         <row r="8">
           <cell r="B8" t="str">
             <v>Funcionalidad</v>
@@ -308,7 +428,297 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2"/>
+          <cell r="G2"/>
+          <cell r="H2"/>
+        </row>
+        <row r="3">
+          <cell r="B3"/>
+          <cell r="G3"/>
+          <cell r="H3"/>
+        </row>
+        <row r="4">
+          <cell r="B4"/>
+          <cell r="G4"/>
+          <cell r="H4"/>
+        </row>
+        <row r="5">
+          <cell r="B5"/>
+          <cell r="G5"/>
+          <cell r="H5"/>
+        </row>
+        <row r="6">
+          <cell r="B6"/>
+          <cell r="G6"/>
+          <cell r="H6"/>
+        </row>
+        <row r="7">
+          <cell r="B7"/>
+          <cell r="G7"/>
+          <cell r="H7"/>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+          <cell r="G8"/>
+          <cell r="H8"/>
+        </row>
+        <row r="9">
+          <cell r="B9"/>
+          <cell r="G9"/>
+          <cell r="H9"/>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>Estado</v>
+          </cell>
+          <cell r="H10"/>
+        </row>
+        <row r="11">
+          <cell r="B11"/>
+          <cell r="G11"/>
+          <cell r="H11"/>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>NO REVISADO</v>
+          </cell>
+          <cell r="H12"/>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+          <cell r="G13"/>
+          <cell r="H13"/>
+        </row>
+        <row r="14">
+          <cell r="B14"/>
+          <cell r="G14"/>
+          <cell r="H14"/>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>Estado</v>
+          </cell>
+          <cell r="H15"/>
+        </row>
+        <row r="16">
+          <cell r="B16"/>
+          <cell r="G16"/>
+          <cell r="H16"/>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>2</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>NO REVISADO</v>
+          </cell>
+          <cell r="H17"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2"/>
+          <cell r="G2"/>
+          <cell r="H2"/>
+        </row>
+        <row r="3">
+          <cell r="B3"/>
+          <cell r="G3"/>
+          <cell r="H3"/>
+        </row>
+        <row r="4">
+          <cell r="B4"/>
+          <cell r="G4"/>
+          <cell r="H4"/>
+        </row>
+        <row r="5">
+          <cell r="B5"/>
+          <cell r="G5"/>
+          <cell r="H5"/>
+        </row>
+        <row r="6">
+          <cell r="B6"/>
+          <cell r="G6"/>
+          <cell r="H6"/>
+        </row>
+        <row r="7">
+          <cell r="B7"/>
+          <cell r="G7"/>
+          <cell r="H7"/>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+          <cell r="G8"/>
+          <cell r="H8"/>
+        </row>
+        <row r="9">
+          <cell r="B9"/>
+          <cell r="G9"/>
+          <cell r="H9"/>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>Estado</v>
+          </cell>
+          <cell r="H10"/>
+        </row>
+        <row r="11">
+          <cell r="B11"/>
+          <cell r="G11"/>
+          <cell r="H11"/>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>NO REVISADO</v>
+          </cell>
+          <cell r="H12"/>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+          <cell r="G13"/>
+          <cell r="H13"/>
+        </row>
+        <row r="14">
+          <cell r="B14"/>
+          <cell r="G14"/>
+          <cell r="H14"/>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>Estado</v>
+          </cell>
+          <cell r="H15"/>
+        </row>
+        <row r="16">
+          <cell r="B16"/>
+          <cell r="G16"/>
+          <cell r="H16"/>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>2</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>NO REVISADO</v>
+          </cell>
+          <cell r="H17"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>Estado</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>NO REVISADO</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Funcionalidad</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>N°</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>Estado</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>2</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>NO REVISADO</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -631,79 +1041,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M33:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
@@ -718,293 +1128,401 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6">
+      <c r="C9" s="7"/>
+      <c r="D9" s="3">
+        <f>COUNT([1]Hoja1!$B:$B)</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="e">
+        <f>COUNTIF([1]Hoja1!$G:$H,"aproBado")+N9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="e">
+        <f>COUNTIF([1]Hoja1!$G:$H,"reportado")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="e">
+        <f>COUNTIF([1]Hoja1!$G:$H,"abierto")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="e">
+        <f>COUNTIF([1]Hoja1!$G:$H,"asignado")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="e">
+        <f>COUNTIF([1]Hoja1!$G:$H,"solucionado")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3">
         <f>COUNT([2]Hoja1!$B:$B)</f>
         <v>2</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <f>COUNTIF([2]Hoja1!$G:$H,"aproBado")+N9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <f>COUNTIF([2]Hoja1!$G:$H,"aproBado")+N11</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <f>COUNTIF([2]Hoja1!$G:$H,"reportado")</f>
         <v>0</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <f>COUNTIF([2]Hoja1!$G:$H,"abierto")</f>
         <v>0</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
         <f>COUNTIF([2]Hoja1!$G:$H,"asignado")</f>
         <v>0</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <f>COUNTIF([2]Hoja1!$G:$H,"solucionado")</f>
         <v>0</v>
       </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="3">
+        <f>COUNT([3]Hoja1!$B:$B)</f>
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6">
-        <f>COUNT([1]Hoja1!$B:$B)</f>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="e">
+        <f>COUNTIF([3]Hoja1!$G:$H,"aproBado")+N13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <f>COUNTIF([3]Hoja1!$G:$H,"reportado")</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <f>COUNTIF([3]Hoja1!$G:$H,"abierto")</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <f>COUNTIF([3]Hoja1!$G:$H,"asignado")</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
+        <f>COUNTIF([3]Hoja1!$G:$H,"solucionado")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3">
+        <f>COUNT([4]Hoja1!$B:$B)</f>
         <v>2</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
-        <f>COUNTIF([1]Hoja1!$G:$H,"aproBado")+N11</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6">
-        <f>COUNTIF([1]Hoja1!$G:$H,"reportado")</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6">
-        <f>COUNTIF([1]Hoja1!$G:$H,"abierto")</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6">
-        <f>COUNTIF([1]Hoja1!$G:$H,"asignado")</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6">
-        <f>COUNTIF([1]Hoja1!$G:$H,"solucionado")</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <f>COUNTIF([4]Hoja1!$G:$H,"aproBado")+N15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <f>COUNTIF([4]Hoja1!$G:$H,"reportado")</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <f>COUNTIF([4]Hoja1!$G:$H,"abierto")</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <f>COUNTIF([4]Hoja1!$G:$H,"asignado")</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
+        <f>COUNTIF([4]Hoja1!$G:$H,"solucionado")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3">
+        <f>COUNT([5]Hoja1!$B:$B)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <f>COUNTIF([5]Hoja1!$G:$H,"aproBado")+N17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <f>COUNTIF([5]Hoja1!$G:$H,"reportado")</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <f>COUNTIF([5]Hoja1!$G:$H,"abierto")</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <f>COUNTIF([5]Hoja1!$G:$H,"asignado")</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
+        <f>COUNTIF([5]Hoja1!$G:$H,"solucionado")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="3">
+        <f>COUNT([6]Hoja1!$B:$B)</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <f>COUNTIF([6]Hoja1!$G:$H,"aproBado")+N19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <f>COUNTIF([6]Hoja1!$G:$H,"reportado")</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
+        <f>COUNTIF([6]Hoja1!$G:$H,"abierto")</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <f>COUNTIF([6]Hoja1!$G:$H,"asignado")</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3">
+        <f>COUNTIF([6]Hoja1!$G:$H,"solucionado")</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="N9:O10"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="N13:O14"/>
     <mergeCell ref="B2:D5"/>
     <mergeCell ref="E2:O3"/>
     <mergeCell ref="E4:O5"/>
@@ -1021,42 +1539,6 @@
     <mergeCell ref="J19:K20"/>
     <mergeCell ref="L19:M20"/>
     <mergeCell ref="N15:O16"/>
-    <mergeCell ref="N11:O12"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:K14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="N9:O10"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
